--- a/ACTIVIDADES DB YTD.xlsx
+++ b/ACTIVIDADES DB YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecno\Documents\Informes semanales\Git-Open-Market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121100AA-FAED-4CF2-ACD5-86027BBB9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D65CC-7535-4B01-956C-083AB46C5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="904" xr2:uid="{7568C62E-EF14-4C17-B0A9-3C467532C37B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="33">
   <si>
     <t>BC1S</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>CG8</t>
+  </si>
+  <si>
+    <t>SELL OUT</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B0A54-7FEA-44B8-A75D-F334840E4986}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,6 +4069,1893 @@
         <v>1613</v>
       </c>
     </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>32</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>32</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>32</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>32</v>
+      </c>
+      <c r="B223" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>32</v>
+      </c>
+      <c r="B224" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" t="s">
+        <v>20</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>32</v>
+      </c>
+      <c r="B228" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229" t="s">
+        <v>20</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>32</v>
+      </c>
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>32</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>32</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>32</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>32</v>
+      </c>
+      <c r="B245" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>32</v>
+      </c>
+      <c r="B247" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>32</v>
+      </c>
+      <c r="B249" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>32</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>32</v>
+      </c>
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>32</v>
+      </c>
+      <c r="B253" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" t="s">
+        <v>19</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" t="s">
+        <v>19</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" t="s">
+        <v>19</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264">
+        <v>7</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>32</v>
+      </c>
+      <c r="B265" t="s">
+        <v>19</v>
+      </c>
+      <c r="C265">
+        <v>7</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>32</v>
+      </c>
+      <c r="B267" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>32</v>
+      </c>
+      <c r="B268" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>32</v>
+      </c>
+      <c r="B269" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>32</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>32</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>32</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>32</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>32</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>32</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>32</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>32</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+      <c r="E291">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>32</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>32</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>32</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>32</v>
+      </c>
+      <c r="B296" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>32</v>
+      </c>
+      <c r="B297" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>32</v>
+      </c>
+      <c r="B298" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298" t="s">
+        <v>21</v>
+      </c>
+      <c r="E298">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>32</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>32</v>
+      </c>
+      <c r="B300" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>32</v>
+      </c>
+      <c r="B301" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>32</v>
+      </c>
+      <c r="B303" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>32</v>
+      </c>
+      <c r="B305" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>21</v>
+      </c>
+      <c r="E305">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>32</v>
+      </c>
+      <c r="B306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>32</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>32</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308">
+        <v>7</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309">
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>32</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>7</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>21</v>
+      </c>
+      <c r="E313">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314">
+        <v>7</v>
+      </c>
+      <c r="D314" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>32</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315">
+        <v>7</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317">
+        <v>8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>32</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319">
+        <v>8</v>
+      </c>
+      <c r="D319" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320">
+        <v>8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>32</v>
+      </c>
+      <c r="B321" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321">
+        <v>8</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321">
+        <v>1167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ACTIVIDADES DB YTD.xlsx
+++ b/ACTIVIDADES DB YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecno\Documents\Informes semanales\Git-Open-Market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D65CC-7535-4B01-956C-083AB46C5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDF7E1-01D8-4DC9-A0EC-3D74190A4B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="904" xr2:uid="{7568C62E-EF14-4C17-B0A9-3C467532C37B}"/>
   </bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B0A54-7FEA-44B8-A75D-F334840E4986}">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="I310" sqref="I310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
